--- a/Group Cards.xlsx
+++ b/Group Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\CECS 343\Illuminati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvaiya/Documents/GitHub/cecs-343-group/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F9969-4C85-42A2-BE51-387451B3576D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA958F1A-B9F4-8A46-AFE1-C78340782FB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="19200" windowHeight="10073" xr2:uid="{C3DD3D33-5C1B-42E8-A740-CB9EC87A0741}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="21220" windowHeight="14540" xr2:uid="{C3DD3D33-5C1B-42E8-A740-CB9EC87A0741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -309,28 +309,16 @@
     <t>Liberal</t>
   </si>
   <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
     <t>Peaceful, Liberal</t>
   </si>
   <si>
     <t>Liberal, Straight</t>
   </si>
   <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>[1,3]</t>
-  </si>
-  <si>
     <t>Straight, Peaceful</t>
   </si>
   <si>
     <t>Liberal, Weird, Government</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
   </si>
   <si>
     <t>Communist</t>
@@ -457,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,18 +800,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF57CFC-30F5-4AA7-96AF-D24CD17D569D}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,11 +853,11 @@
       <c r="F2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,11 +876,11 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -955,13 +943,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1003,11 +991,11 @@
       <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1047,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1070,13 +1058,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,13 +1081,13 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,13 +1127,13 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1162,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1187,11 +1175,11 @@
       <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="G16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1210,11 +1198,11 @@
       <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1231,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1254,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1279,11 +1267,11 @@
       <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1323,13 +1311,13 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1346,13 +1334,13 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1371,11 +1359,11 @@
       <c r="F24" t="s">
         <v>91</v>
       </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,13 +1380,13 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1415,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1438,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,13 +1449,13 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1486,11 +1474,11 @@
       <c r="F29" t="s">
         <v>91</v>
       </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1507,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1524,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1553,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1578,11 +1566,11 @@
       <c r="F33" t="s">
         <v>91</v>
       </c>
-      <c r="G33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1601,11 +1589,11 @@
       <c r="F34" t="s">
         <v>91</v>
       </c>
-      <c r="G34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1622,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1645,13 +1633,13 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1668,13 +1656,13 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1688,16 +1676,16 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
         <v>115</v>
       </c>
-      <c r="F38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1714,13 +1702,13 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1737,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1760,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1783,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1806,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1829,13 +1817,13 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1852,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1875,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1898,13 +1886,13 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1921,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1944,13 +1932,13 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1967,13 +1955,13 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1990,13 +1978,13 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -2013,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -2036,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2059,13 +2047,13 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2082,13 +2070,13 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2105,13 +2093,13 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2128,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2151,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2174,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -2197,13 +2185,13 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2220,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>128</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2243,13 +2231,13 @@
         <v>-1</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2266,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2289,13 +2277,13 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2312,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2337,11 +2325,11 @@
       <c r="F66" t="s">
         <v>91</v>
       </c>
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2358,13 +2346,13 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2381,13 +2369,13 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2404,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -2427,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2450,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2475,11 +2463,11 @@
       <c r="F72" t="s">
         <v>90</v>
       </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -2496,13 +2484,13 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -2519,13 +2507,13 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -2542,13 +2530,13 @@
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -2565,13 +2553,13 @@
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -2588,13 +2576,13 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -2611,13 +2599,13 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2634,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -2657,13 +2645,13 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2680,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>139</v>
-      </c>
-      <c r="G81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2705,11 +2693,11 @@
       <c r="F82" t="s">
         <v>91</v>
       </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2726,13 +2714,13 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
-      </c>
-      <c r="G83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -2749,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
   </sheetData>
